--- a/qc/total_reads_per_sample.xlsx
+++ b/qc/total_reads_per_sample.xlsx
@@ -28,7 +28,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="myeloid_set1.log" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="MLG-HARPSEAL:Users:xwang:Dropbox:GitHub:basespace:shell:myeloid_set1.log">
+    <textPr fileType="mac" sourceFile="MLG-HARPSEAL:Users:xwang:Dropbox:GitHub:basespace:shell:myeloid_set1.log">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -36,7 +36,7 @@
     </textPr>
   </connection>
   <connection id="2" name="myeloid_set2.log" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="MLG-HARPSEAL:Users:xwang:Dropbox:GitHub:basespace:shell:myeloid_set2.log">
+    <textPr fileType="mac" sourceFile="MLG-HARPSEAL:Users:xwang:Dropbox:GitHub:basespace:shell:myeloid_set2.log">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -45,7 +45,7 @@
     </textPr>
   </connection>
   <connection id="3" name="tcells.log" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="MLG-HARPSEAL:Users:xwang:Dropbox:GitHub:basespace:shell:tcells.log">
+    <textPr fileType="mac" sourceFile="MLG-HARPSEAL:Users:xwang:Dropbox:GitHub:basespace:shell:tcells.log">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -352,8 +352,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -372,17 +384,29 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -724,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -736,7 +760,7 @@
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1">
+    <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>75</v>
       </c>
@@ -747,7 +771,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -758,8 +782,22 @@
         <f>B2/4</f>
         <v>10968465</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="F2">
+        <v>43873860</v>
+      </c>
+      <c r="G2">
+        <v>17241956</v>
+      </c>
+      <c r="H2">
+        <f>F2+G2</f>
+        <v>61115816</v>
+      </c>
+      <c r="I2">
+        <f>H2/4</f>
+        <v>15278954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -767,11 +805,25 @@
         <v>52651552</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C21" si="0">B3/4</f>
+        <f t="shared" ref="C3:E21" si="0">B3/4</f>
         <v>13162888</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="F3">
+        <v>52651552</v>
+      </c>
+      <c r="G3">
+        <v>20332264</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H21" si="1">F3+G3</f>
+        <v>72983816</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I21" si="2">H3/4</f>
+        <v>18245954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -782,8 +834,22 @@
         <f t="shared" si="0"/>
         <v>13371378</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="F4">
+        <v>53485512</v>
+      </c>
+      <c r="G4">
+        <v>20802504</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>74288016</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>18572004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -794,8 +860,22 @@
         <f t="shared" si="0"/>
         <v>9435436</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="F5">
+        <v>37741744</v>
+      </c>
+      <c r="G5">
+        <v>14185032</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>51926776</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>12981694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -806,8 +886,22 @@
         <f t="shared" si="0"/>
         <v>12495864</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="F6">
+        <v>49983456</v>
+      </c>
+      <c r="G6">
+        <v>19836840</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>69820296</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>17455074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -818,8 +912,22 @@
         <f t="shared" si="0"/>
         <v>12404515</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="F7">
+        <v>49618060</v>
+      </c>
+      <c r="G7">
+        <v>19436264</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>69054324</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>17263581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -830,8 +938,22 @@
         <f t="shared" si="0"/>
         <v>17125185</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="F8">
+        <v>68500740</v>
+      </c>
+      <c r="G8">
+        <v>25702296</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>94203036</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>23550759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -842,8 +964,22 @@
         <f t="shared" si="0"/>
         <v>12963821</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="F9">
+        <v>51855284</v>
+      </c>
+      <c r="G9">
+        <v>19063864</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>70919148</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>17729787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -854,8 +990,22 @@
         <f t="shared" si="0"/>
         <v>10991940</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="F10">
+        <v>43967760</v>
+      </c>
+      <c r="G10">
+        <v>16285488</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>60253248</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>15063312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -866,8 +1016,22 @@
         <f t="shared" si="0"/>
         <v>14273614</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="F11">
+        <v>57094456</v>
+      </c>
+      <c r="G11">
+        <v>22023036</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>79117492</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>19779373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -878,8 +1042,22 @@
         <f t="shared" si="0"/>
         <v>18524887</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="F12">
+        <v>74099548</v>
+      </c>
+      <c r="G12">
+        <v>29258148</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>103357696</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>25839424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -890,8 +1068,22 @@
         <f t="shared" si="0"/>
         <v>18417544</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="F13">
+        <v>73670176</v>
+      </c>
+      <c r="G13">
+        <v>28787536</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>102457712</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>25614428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -902,8 +1094,22 @@
         <f t="shared" si="0"/>
         <v>15820672</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="F14">
+        <v>63282688</v>
+      </c>
+      <c r="G14">
+        <v>24089588</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>87372276</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>21843069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -914,8 +1120,22 @@
         <f t="shared" si="0"/>
         <v>12462868</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="F15">
+        <v>49851472</v>
+      </c>
+      <c r="G15">
+        <v>18983956</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>68835428</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>17208857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -926,8 +1146,22 @@
         <f t="shared" si="0"/>
         <v>10938858</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="F16">
+        <v>43755432</v>
+      </c>
+      <c r="G16">
+        <v>16896764</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>60652196</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>15163049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -938,8 +1172,22 @@
         <f t="shared" si="0"/>
         <v>10120688</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="F17">
+        <v>40482752</v>
+      </c>
+      <c r="G17">
+        <v>15355644</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>55838396</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>13959599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -950,8 +1198,22 @@
         <f t="shared" si="0"/>
         <v>14814686</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="F18">
+        <v>59258744</v>
+      </c>
+      <c r="G18">
+        <v>22940596</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>82199340</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>20549835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -962,8 +1224,22 @@
         <f t="shared" si="0"/>
         <v>16864310</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="F19">
+        <v>67457240</v>
+      </c>
+      <c r="G19">
+        <v>26675324</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>94132564</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>23533141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -974,8 +1250,22 @@
         <f t="shared" si="0"/>
         <v>16161403</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="F20">
+        <v>64645612</v>
+      </c>
+      <c r="G20">
+        <v>24652748</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>89298360</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>22324590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -985,6 +1275,20 @@
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>14357831</v>
+      </c>
+      <c r="F21">
+        <v>57431324</v>
+      </c>
+      <c r="G21">
+        <v>21626804</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>79058128</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>19764532</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +1307,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
